--- a/biology/Zoologie/Egernia_stokesii/Egernia_stokesii.xlsx
+++ b/biology/Zoologie/Egernia_stokesii/Egernia_stokesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Egernia stokesii est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Egernia stokesii est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale, dans le Territoire du Nord, au Queensland, en Australie-Méridionale et en Nouvelle-Galles du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale, dans le Territoire du Nord, au Queensland, en Australie-Méridionale et en Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 septembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 septembre 2012) :
 Egernia stokesii aethiops Storr, 1978
 Egernia stokesii badia Storr, 1978
 Egernia stokesii stokesii (Gray, 1845)
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Lort Stokes[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Lort Stokes.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De Vis, 1884 : On new species of Australian lizards. Proceedings of the Royal Society of Queensland, vol. 1, p. 97-100 (texte intégral).
 Gray, 1845 : Catalogue of the specimens of lizards in the collection of the British Museum, p. 1-289 (texte intégral).
